--- a/data/output/FV2504_FV2410/UTILMD/55239.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55239.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="269">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="269">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -954,6 +954,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U109" totalsRowShown="0">
+  <autoFilter ref="A1:U109"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,7 +1273,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6507,5 +6540,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55239.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="374">
   <si>
     <t>#</t>
   </si>
@@ -5434,44 +5434,42 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5609,9 +5607,7 @@
         <v>221</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>37</v>
       </c>
@@ -5638,44 +5634,42 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -6162,44 +6156,42 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6561,9 +6553,7 @@
         <v>221</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>42</v>
       </c>
@@ -6617,9 +6607,7 @@
         <v>221</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55239.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55239.xlsx
@@ -1253,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1276,6 +1276,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1284,6 +1287,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1726,7 +1732,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2090,7 +2096,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2236,7 +2242,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2438,7 +2444,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2746,7 +2752,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2946,7 +2952,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3320,7 +3326,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3628,7 +3634,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3804,26 +3810,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3832,23 +3838,23 @@
       <c r="L43" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>226</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -4032,26 +4038,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -4060,23 +4066,23 @@
       <c r="L47" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>226</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -4270,26 +4276,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M51" s="5"/>
@@ -4307,33 +4313,33 @@
       <c r="A52" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M52" s="5"/>
@@ -4351,33 +4357,33 @@
       <c r="A53" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M53" s="5"/>
@@ -4405,29 +4411,29 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4443,35 +4449,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4487,57 +4493,57 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>230</v>
       </c>
       <c r="K57" s="6" t="s">
@@ -4546,23 +4552,23 @@
       <c r="L57" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O57" s="5" t="s">
+      <c r="O57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P57" s="5"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>230</v>
       </c>
       <c r="V57" s="6" t="s">
@@ -4803,31 +4809,31 @@
       <c r="A62" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M62" s="5"/>
@@ -4842,26 +4848,26 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>231</v>
       </c>
       <c r="K63" s="6" t="s">
@@ -4870,23 +4876,23 @@
       <c r="L63" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>231</v>
       </c>
       <c r="V63" s="6" t="s">
@@ -5010,22 +5016,22 @@
       <c r="V65" s="5"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>232</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -5034,19 +5040,19 @@
       <c r="L66" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>232</v>
       </c>
       <c r="V66" s="6" t="s">
@@ -5222,22 +5228,22 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>232</v>
       </c>
       <c r="K70" s="6" t="s">
@@ -5246,19 +5252,19 @@
       <c r="L70" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>232</v>
       </c>
       <c r="V70" s="6" t="s">
@@ -5454,7 +5460,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5654,7 +5660,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5836,22 +5842,22 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>235</v>
       </c>
       <c r="K82" s="6" t="s">
@@ -5860,19 +5866,19 @@
       <c r="L82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>235</v>
       </c>
       <c r="V82" s="6" t="s">
@@ -5988,52 +5994,52 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P85" s="5"/>
+      <c r="P85" s="2"/>
       <c r="Q85" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6176,7 +6182,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6302,52 +6308,52 @@
       <c r="V90" s="5"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O91" s="5" t="s">
+      <c r="O91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P91" s="5"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6634,22 +6640,22 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K97" s="6" t="s">
@@ -6658,19 +6664,19 @@
       <c r="L97" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>226</v>
       </c>
       <c r="V97" s="6" t="s">
@@ -6786,52 +6792,52 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K100" s="5"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O100" s="5" t="s">
+      <c r="O100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P100" s="5"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V100" s="5"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6954,52 +6960,52 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="2"/>
       <c r="L103" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P103" s="5"/>
+      <c r="P103" s="2"/>
       <c r="Q103" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -7178,48 +7184,48 @@
       <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K107" s="5"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5" t="s">
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P107" s="5"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5" t="s">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V107" s="5"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
